--- a/data/pca/factorExposure/factorExposure_2014-09-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-09-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.008546760058840992</v>
+        <v>0.01909347775708188</v>
       </c>
       <c r="C2">
-        <v>-0.1167956663466848</v>
+        <v>-0.07383343477817796</v>
       </c>
       <c r="D2">
-        <v>0.002725916036550604</v>
+        <v>0.03131739353888404</v>
       </c>
       <c r="E2">
-        <v>-0.236671331918435</v>
+        <v>-0.09387661591985828</v>
       </c>
       <c r="F2">
-        <v>0.0509097350862862</v>
+        <v>-0.1286345267439136</v>
       </c>
       <c r="G2">
-        <v>0.06840706662828375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.007089439132363397</v>
+      </c>
+      <c r="H2">
+        <v>-0.05282007102955622</v>
+      </c>
+      <c r="I2">
+        <v>-0.02763757545067471</v>
+      </c>
+      <c r="J2">
+        <v>0.02439273157280547</v>
+      </c>
+      <c r="K2">
+        <v>0.2097614444884097</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.01865105648547133</v>
+        <v>0.01844178052642305</v>
       </c>
       <c r="C4">
-        <v>-0.1608029732502763</v>
+        <v>-0.1430941325023183</v>
       </c>
       <c r="D4">
-        <v>0.005304392892431059</v>
+        <v>0.06063401771543925</v>
       </c>
       <c r="E4">
-        <v>-0.07108024501894181</v>
+        <v>0.0117420826299829</v>
       </c>
       <c r="F4">
-        <v>-0.07677878813943861</v>
+        <v>-0.07237747355434163</v>
       </c>
       <c r="G4">
-        <v>0.01871454811503336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.01572155097805981</v>
+      </c>
+      <c r="H4">
+        <v>-0.08919082048012647</v>
+      </c>
+      <c r="I4">
+        <v>-0.09866376559487175</v>
+      </c>
+      <c r="J4">
+        <v>0.07206168429528984</v>
+      </c>
+      <c r="K4">
+        <v>0.1598866085036195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.02632830852015008</v>
+        <v>0.03816003182349255</v>
       </c>
       <c r="C6">
-        <v>-0.07727489647326476</v>
+        <v>-0.08603111429915795</v>
       </c>
       <c r="D6">
-        <v>0.05373542083119123</v>
+        <v>0.03126481954926784</v>
       </c>
       <c r="E6">
-        <v>-0.06380975653131617</v>
+        <v>-0.04621978857992787</v>
       </c>
       <c r="F6">
-        <v>-0.0139734145832866</v>
+        <v>-0.01616478581964089</v>
       </c>
       <c r="G6">
-        <v>-0.008338572914198605</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.04049166651284127</v>
+      </c>
+      <c r="H6">
+        <v>-0.03084225346653561</v>
+      </c>
+      <c r="I6">
+        <v>0.008470399792251105</v>
+      </c>
+      <c r="J6">
+        <v>-0.08183367433891846</v>
+      </c>
+      <c r="K6">
+        <v>0.08724112528324467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.003533725069429512</v>
+        <v>0.01845040408519547</v>
       </c>
       <c r="C7">
-        <v>-0.06749434532813524</v>
+        <v>-0.07510499612166927</v>
       </c>
       <c r="D7">
-        <v>0.03030277391266574</v>
+        <v>0.02766656056389131</v>
       </c>
       <c r="E7">
-        <v>-0.02568633898423696</v>
+        <v>0.014142999633239</v>
       </c>
       <c r="F7">
-        <v>-0.04124838578484866</v>
+        <v>-0.0008445141491497037</v>
       </c>
       <c r="G7">
-        <v>-0.01034989259554945</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.03720683709836362</v>
+      </c>
+      <c r="H7">
+        <v>-0.09885399646528473</v>
+      </c>
+      <c r="I7">
+        <v>-0.02718784189093865</v>
+      </c>
+      <c r="J7">
+        <v>0.0006414178632115186</v>
+      </c>
+      <c r="K7">
+        <v>0.04385942921070123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.007410835730618495</v>
+        <v>0.0001659591319524343</v>
       </c>
       <c r="C8">
-        <v>-0.07198041136307913</v>
+        <v>-0.06175940425421754</v>
       </c>
       <c r="D8">
-        <v>0.02772752172867245</v>
+        <v>0.04219021338128921</v>
       </c>
       <c r="E8">
-        <v>-0.08557119455879392</v>
+        <v>-0.01979712726866079</v>
       </c>
       <c r="F8">
-        <v>-0.03318755086437884</v>
+        <v>-0.05947299210478035</v>
       </c>
       <c r="G8">
-        <v>0.02751971333972282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.01366587463059971</v>
+      </c>
+      <c r="H8">
+        <v>-0.0574301188007583</v>
+      </c>
+      <c r="I8">
+        <v>-0.01655351374417081</v>
+      </c>
+      <c r="J8">
+        <v>0.002387217289798773</v>
+      </c>
+      <c r="K8">
+        <v>0.002808920430312631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.01019876129065617</v>
+        <v>0.01398558084813356</v>
       </c>
       <c r="C9">
-        <v>-0.1235980827454525</v>
+        <v>-0.1039911339354722</v>
       </c>
       <c r="D9">
-        <v>0.03028728311427179</v>
+        <v>0.04271694815746476</v>
       </c>
       <c r="E9">
-        <v>-0.02867227504424979</v>
+        <v>-0.001005956834441488</v>
       </c>
       <c r="F9">
-        <v>-0.03090945359226743</v>
+        <v>-0.03160849580168265</v>
       </c>
       <c r="G9">
-        <v>-0.0287097987744622</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.0017888879514339</v>
+      </c>
+      <c r="H9">
+        <v>-0.09040028572314182</v>
+      </c>
+      <c r="I9">
+        <v>-0.06854944174020393</v>
+      </c>
+      <c r="J9">
+        <v>0.02008919316715138</v>
+      </c>
+      <c r="K9">
+        <v>0.06776771165947035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2743744449639084</v>
+        <v>0.2481614475178553</v>
       </c>
       <c r="C10">
-        <v>0.08797401126379184</v>
+        <v>0.09281817610658886</v>
       </c>
       <c r="D10">
-        <v>-0.02278941746976635</v>
+        <v>-0.005150024317694916</v>
       </c>
       <c r="E10">
-        <v>0.03735166966620163</v>
+        <v>-0.01226043486398247</v>
       </c>
       <c r="F10">
-        <v>-0.004909447836938997</v>
+        <v>0.009906840686040396</v>
       </c>
       <c r="G10">
-        <v>-0.01843562763144956</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.01468258269552131</v>
+      </c>
+      <c r="H10">
+        <v>-0.03961093119534496</v>
+      </c>
+      <c r="I10">
+        <v>-0.003553953106516558</v>
+      </c>
+      <c r="J10">
+        <v>0.1752598304956403</v>
+      </c>
+      <c r="K10">
+        <v>-0.109409668409244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.007535264527897637</v>
+        <v>0.01668549892335654</v>
       </c>
       <c r="C11">
-        <v>-0.07193222621560054</v>
+        <v>-0.08413880653745617</v>
       </c>
       <c r="D11">
-        <v>0.02432396070993163</v>
+        <v>0.0380367248816559</v>
       </c>
       <c r="E11">
-        <v>0.01902904790438023</v>
+        <v>0.007119468393398235</v>
       </c>
       <c r="F11">
-        <v>-0.01472011770024623</v>
+        <v>0.01462402824672749</v>
       </c>
       <c r="G11">
-        <v>-0.04042232218497977</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.006652039412461421</v>
+      </c>
+      <c r="H11">
+        <v>-0.03145833350431116</v>
+      </c>
+      <c r="I11">
+        <v>-0.01888506207992273</v>
+      </c>
+      <c r="J11">
+        <v>-0.02076020445126759</v>
+      </c>
+      <c r="K11">
+        <v>-0.02484538553325027</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.006186267345981949</v>
+        <v>0.01643492700022083</v>
       </c>
       <c r="C12">
-        <v>-0.05667964894624158</v>
+        <v>-0.05887237804111649</v>
       </c>
       <c r="D12">
-        <v>0.0293602494279001</v>
+        <v>0.02247782691787002</v>
       </c>
       <c r="E12">
-        <v>0.013944817591515</v>
+        <v>-0.01616822178861801</v>
       </c>
       <c r="F12">
-        <v>0.01498350249476497</v>
+        <v>0.02168370514465723</v>
       </c>
       <c r="G12">
-        <v>-0.06631002666617011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.02425240262332658</v>
+      </c>
+      <c r="H12">
+        <v>-0.0306571493991424</v>
+      </c>
+      <c r="I12">
+        <v>-0.01697390246300768</v>
+      </c>
+      <c r="J12">
+        <v>-0.0144434789099361</v>
+      </c>
+      <c r="K12">
+        <v>-0.01340889123486198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.01704632884102944</v>
+        <v>0.007154050210244295</v>
       </c>
       <c r="C13">
-        <v>-0.1318623408535429</v>
+        <v>-0.1226503860897274</v>
       </c>
       <c r="D13">
-        <v>0.05152990564616921</v>
+        <v>0.04102819985092897</v>
       </c>
       <c r="E13">
-        <v>-0.05061559196470562</v>
+        <v>-0.1520495677325555</v>
       </c>
       <c r="F13">
-        <v>0.007938296828373513</v>
+        <v>-0.06689563107527959</v>
       </c>
       <c r="G13">
-        <v>-0.17115971119978</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.1105786137703811</v>
+      </c>
+      <c r="H13">
+        <v>-0.1353628697746355</v>
+      </c>
+      <c r="I13">
+        <v>0.1661380934470843</v>
+      </c>
+      <c r="J13">
+        <v>0.1422084825485168</v>
+      </c>
+      <c r="K13">
+        <v>-0.1979605746542697</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.00948733066012533</v>
+        <v>0.0196505548438503</v>
       </c>
       <c r="C14">
-        <v>-0.07236113821685224</v>
+        <v>-0.07613363982111045</v>
       </c>
       <c r="D14">
-        <v>0.02741774949205572</v>
+        <v>0.04962256439460806</v>
       </c>
       <c r="E14">
-        <v>-0.03486748066346008</v>
+        <v>-0.04825060447664306</v>
       </c>
       <c r="F14">
-        <v>0.015377952964749</v>
+        <v>0.01578867105584843</v>
       </c>
       <c r="G14">
-        <v>-0.06048204832768592</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.06819491554176937</v>
+      </c>
+      <c r="H14">
+        <v>-0.2100805254139376</v>
+      </c>
+      <c r="I14">
+        <v>0.009100255636729412</v>
+      </c>
+      <c r="J14">
+        <v>-0.05178940996252345</v>
+      </c>
+      <c r="K14">
+        <v>-0.09604195333702538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.008792247945290963</v>
+        <v>0.003303850444317954</v>
       </c>
       <c r="C15">
-        <v>-0.100373076975302</v>
+        <v>-0.08227382482227975</v>
       </c>
       <c r="D15">
-        <v>0.03851503177488889</v>
+        <v>0.03559047791614966</v>
       </c>
       <c r="E15">
-        <v>-0.05701291880223141</v>
+        <v>-0.006318799662971197</v>
       </c>
       <c r="F15">
-        <v>-0.02994822354164534</v>
+        <v>-0.02405020201858432</v>
       </c>
       <c r="G15">
-        <v>-0.03157726696508009</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.02998539652290382</v>
+      </c>
+      <c r="H15">
+        <v>-0.09354694304290857</v>
+      </c>
+      <c r="I15">
+        <v>-0.02354093462007003</v>
+      </c>
+      <c r="J15">
+        <v>-0.02263309073132041</v>
+      </c>
+      <c r="K15">
+        <v>-0.05395523161168582</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.01037314887636583</v>
+        <v>0.01561464417958877</v>
       </c>
       <c r="C16">
-        <v>-0.06433765660103427</v>
+        <v>-0.06396735011950877</v>
       </c>
       <c r="D16">
-        <v>0.01695638207627643</v>
+        <v>0.02648184932695739</v>
       </c>
       <c r="E16">
-        <v>0.01319729764404219</v>
+        <v>0.002458262343219743</v>
       </c>
       <c r="F16">
-        <v>0.004046319615286447</v>
+        <v>0.01081028320855144</v>
       </c>
       <c r="G16">
-        <v>-0.03145511006548848</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.00651752680850013</v>
+      </c>
+      <c r="H16">
+        <v>-0.02442404177899267</v>
+      </c>
+      <c r="I16">
+        <v>-0.01749779877812023</v>
+      </c>
+      <c r="J16">
+        <v>-0.0153173047892202</v>
+      </c>
+      <c r="K16">
+        <v>-0.007228829268503363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.01422831382177354</v>
+        <v>0.01533450247557192</v>
       </c>
       <c r="C20">
-        <v>-0.08945647672620062</v>
+        <v>-0.08657244643970585</v>
       </c>
       <c r="D20">
-        <v>0.01810213797285971</v>
+        <v>0.02510631909961971</v>
       </c>
       <c r="E20">
-        <v>0.01087365095877337</v>
+        <v>0.02524344312858576</v>
       </c>
       <c r="F20">
-        <v>-0.04943158085024969</v>
+        <v>0.002873161158619953</v>
       </c>
       <c r="G20">
-        <v>-0.08517341286760031</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.03739168428251299</v>
+      </c>
+      <c r="H20">
+        <v>-0.07268121735121875</v>
+      </c>
+      <c r="I20">
+        <v>-0.01982295650012091</v>
+      </c>
+      <c r="J20">
+        <v>-0.01068732665671975</v>
+      </c>
+      <c r="K20">
+        <v>0.01185241229339008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.0005969118980491756</v>
+        <v>0.01498930220204119</v>
       </c>
       <c r="C21">
-        <v>-0.09023518600683815</v>
+        <v>-0.0723183882360524</v>
       </c>
       <c r="D21">
-        <v>-0.02912806420394761</v>
+        <v>0.02120264235928955</v>
       </c>
       <c r="E21">
-        <v>-0.04900483670672352</v>
+        <v>-0.0891805353564866</v>
       </c>
       <c r="F21">
-        <v>0.04715132783931684</v>
+        <v>0.01048457435154012</v>
       </c>
       <c r="G21">
-        <v>-0.04831033527859616</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.01241180967048131</v>
+      </c>
+      <c r="H21">
+        <v>-0.1418822237297364</v>
+      </c>
+      <c r="I21">
+        <v>0.04683006303412267</v>
+      </c>
+      <c r="J21">
+        <v>0.01210045358498599</v>
+      </c>
+      <c r="K21">
+        <v>-0.04580809608866192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.04167423923322654</v>
+        <v>0.008337558474505877</v>
       </c>
       <c r="C22">
-        <v>-0.2009284017922846</v>
+        <v>-0.1759378471465498</v>
       </c>
       <c r="D22">
-        <v>-0.08267154050480673</v>
+        <v>0.01499429971728258</v>
       </c>
       <c r="E22">
-        <v>-0.2934570906618321</v>
+        <v>-0.03986327438583606</v>
       </c>
       <c r="F22">
-        <v>-0.1846114589793232</v>
+        <v>-0.5330171103463859</v>
       </c>
       <c r="G22">
-        <v>0.1707739339182301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.01251638972106659</v>
+      </c>
+      <c r="H22">
+        <v>0.293578490058315</v>
+      </c>
+      <c r="I22">
+        <v>0.04743275315527738</v>
+      </c>
+      <c r="J22">
+        <v>-0.01342582377934291</v>
+      </c>
+      <c r="K22">
+        <v>-0.2170755453541398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.0411470380333193</v>
+        <v>0.01338486954303181</v>
       </c>
       <c r="C23">
-        <v>-0.2014201083832292</v>
+        <v>-0.1796730886581065</v>
       </c>
       <c r="D23">
-        <v>-0.08241034539059169</v>
+        <v>0.0142586719389818</v>
       </c>
       <c r="E23">
-        <v>-0.2896249335596084</v>
+        <v>-0.03936730391475705</v>
       </c>
       <c r="F23">
-        <v>-0.1825059527528162</v>
+        <v>-0.5145468768241657</v>
       </c>
       <c r="G23">
-        <v>0.170308268229115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.01443830154411367</v>
+      </c>
+      <c r="H23">
+        <v>0.2724759460029017</v>
+      </c>
+      <c r="I23">
+        <v>0.03938322609025739</v>
+      </c>
+      <c r="J23">
+        <v>-0.01661218797207574</v>
+      </c>
+      <c r="K23">
+        <v>-0.2039557648869679</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.004493725438151824</v>
+        <v>0.01684992843585465</v>
       </c>
       <c r="C24">
-        <v>-0.0672423796219131</v>
+        <v>-0.0691725536978354</v>
       </c>
       <c r="D24">
-        <v>0.03761031162541351</v>
+        <v>0.03888650047438518</v>
       </c>
       <c r="E24">
-        <v>0.01382297369966289</v>
+        <v>0.005494871806207518</v>
       </c>
       <c r="F24">
-        <v>-0.008274112453751545</v>
+        <v>0.01097766933896373</v>
       </c>
       <c r="G24">
-        <v>-0.0546135750116755</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02217437284725709</v>
+      </c>
+      <c r="H24">
+        <v>-0.04310027623810405</v>
+      </c>
+      <c r="I24">
+        <v>-0.02318793397742683</v>
+      </c>
+      <c r="J24">
+        <v>-0.01415329877724884</v>
+      </c>
+      <c r="K24">
+        <v>-0.01602998592212671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.007911517263888493</v>
+        <v>0.02102755721062493</v>
       </c>
       <c r="C25">
-        <v>-0.06927586459546888</v>
+        <v>-0.0712872895390694</v>
       </c>
       <c r="D25">
-        <v>0.01648434086532588</v>
+        <v>0.02913203905368941</v>
       </c>
       <c r="E25">
-        <v>0.02009234718462272</v>
+        <v>0.006650146139952833</v>
       </c>
       <c r="F25">
-        <v>-0.009359454919002566</v>
+        <v>0.008118767186786644</v>
       </c>
       <c r="G25">
-        <v>-0.05006303703610964</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.01629632121046599</v>
+      </c>
+      <c r="H25">
+        <v>-0.0370164367553423</v>
+      </c>
+      <c r="I25">
+        <v>-0.0219616644721801</v>
+      </c>
+      <c r="J25">
+        <v>-0.00391615542741101</v>
+      </c>
+      <c r="K25">
+        <v>-0.02850360667288387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.006313949631719828</v>
+        <v>0.02472845549135435</v>
       </c>
       <c r="C26">
-        <v>-0.06514354399827658</v>
+        <v>-0.06041646396248752</v>
       </c>
       <c r="D26">
-        <v>0.05397373902859447</v>
+        <v>0.06386152950597709</v>
       </c>
       <c r="E26">
-        <v>-0.007847925874928779</v>
+        <v>0.004926058599186656</v>
       </c>
       <c r="F26">
-        <v>0.01932293014510444</v>
+        <v>0.0206196630906864</v>
       </c>
       <c r="G26">
-        <v>-0.03218715595044701</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.01037921412488487</v>
+      </c>
+      <c r="H26">
+        <v>-0.1000787340951222</v>
+      </c>
+      <c r="I26">
+        <v>-0.07294788292975619</v>
+      </c>
+      <c r="J26">
+        <v>-0.02070695962305407</v>
+      </c>
+      <c r="K26">
+        <v>0.09317902735007244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3731823340308055</v>
+        <v>0.3165292321908292</v>
       </c>
       <c r="C28">
-        <v>0.1013587558812594</v>
+        <v>0.1066257953915153</v>
       </c>
       <c r="D28">
-        <v>-0.02626187615039981</v>
+        <v>-0.03242023407432149</v>
       </c>
       <c r="E28">
-        <v>0.09008821535342186</v>
+        <v>-0.02664262750109883</v>
       </c>
       <c r="F28">
-        <v>0.08306230960580165</v>
+        <v>-0.0340221553229115</v>
       </c>
       <c r="G28">
-        <v>0.01934998130473061</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.1315466187957467</v>
+      </c>
+      <c r="H28">
+        <v>-0.05370091655801722</v>
+      </c>
+      <c r="I28">
+        <v>0.06933955552062698</v>
+      </c>
+      <c r="J28">
+        <v>0.1991948036144072</v>
+      </c>
+      <c r="K28">
+        <v>0.003429941448172407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.008534265772345357</v>
+        <v>0.01411800575977111</v>
       </c>
       <c r="C29">
-        <v>-0.07662424730947613</v>
+        <v>-0.08152255450261098</v>
       </c>
       <c r="D29">
-        <v>0.04161660043885217</v>
+        <v>0.05455741503108304</v>
       </c>
       <c r="E29">
-        <v>-0.03258273196022275</v>
+        <v>-0.05821775721664051</v>
       </c>
       <c r="F29">
-        <v>0.003458109342548546</v>
+        <v>0.01095944186513285</v>
       </c>
       <c r="G29">
-        <v>-0.09170459687199713</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.1065296191200895</v>
+      </c>
+      <c r="H29">
+        <v>-0.2969132720235986</v>
+      </c>
+      <c r="I29">
+        <v>0.01452719364853761</v>
+      </c>
+      <c r="J29">
+        <v>-0.04867708754200467</v>
+      </c>
+      <c r="K29">
+        <v>-0.146825609649552</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.0323012343342886</v>
+        <v>0.03188900469569207</v>
       </c>
       <c r="C30">
-        <v>-0.1749515003781828</v>
+        <v>-0.1450315030727965</v>
       </c>
       <c r="D30">
-        <v>0.06163189873304497</v>
+        <v>0.05749628072277737</v>
       </c>
       <c r="E30">
-        <v>-0.04108177641927141</v>
+        <v>-0.002573193531356669</v>
       </c>
       <c r="F30">
-        <v>-0.05543674309795048</v>
+        <v>-0.0657321019347132</v>
       </c>
       <c r="G30">
-        <v>0.004711682262681202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01101905492752195</v>
+      </c>
+      <c r="H30">
+        <v>-0.0334558616312718</v>
+      </c>
+      <c r="I30">
+        <v>-0.0367955733734655</v>
+      </c>
+      <c r="J30">
+        <v>-0.0227731151688579</v>
+      </c>
+      <c r="K30">
+        <v>0.08315430495625487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.003604759153444649</v>
+        <v>0.0136270591312271</v>
       </c>
       <c r="C31">
-        <v>-0.06401755609760852</v>
+        <v>-0.08178701519425231</v>
       </c>
       <c r="D31">
-        <v>0.03506167625228427</v>
+        <v>0.04124611709907711</v>
       </c>
       <c r="E31">
-        <v>0.01718405890888846</v>
+        <v>-0.002034384963869108</v>
       </c>
       <c r="F31">
-        <v>0.01380889906708</v>
+        <v>0.002047916252003448</v>
       </c>
       <c r="G31">
-        <v>-0.01398048638874741</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02870355731234046</v>
+      </c>
+      <c r="H31">
+        <v>-0.03631996955050405</v>
+      </c>
+      <c r="I31">
+        <v>-0.02188052687506298</v>
+      </c>
+      <c r="J31">
+        <v>-0.01189300806126957</v>
+      </c>
+      <c r="K31">
+        <v>-0.04491327379375202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.02045527570476828</v>
+        <v>0.02195990146414678</v>
       </c>
       <c r="C32">
-        <v>-0.08470917934604064</v>
+        <v>-0.05482224950617206</v>
       </c>
       <c r="D32">
-        <v>-0.00599031381455911</v>
+        <v>0.01773385263726859</v>
       </c>
       <c r="E32">
-        <v>-0.1619498644862071</v>
+        <v>-0.09496633720095447</v>
       </c>
       <c r="F32">
-        <v>-0.01045648869972694</v>
+        <v>-0.07309621215868926</v>
       </c>
       <c r="G32">
-        <v>-0.06110037713185921</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.06140519035796204</v>
+      </c>
+      <c r="H32">
+        <v>-0.1706721038728401</v>
+      </c>
+      <c r="I32">
+        <v>0.1249279970916287</v>
+      </c>
+      <c r="J32">
+        <v>0.2185416961807716</v>
+      </c>
+      <c r="K32">
+        <v>-0.01631007146884094</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.01627152703118427</v>
+        <v>0.01783267835256238</v>
       </c>
       <c r="C33">
-        <v>-0.09775218976420308</v>
+        <v>-0.1076447126904432</v>
       </c>
       <c r="D33">
-        <v>0.05991998129139142</v>
+        <v>0.04874646051983791</v>
       </c>
       <c r="E33">
-        <v>-0.009269447237402209</v>
+        <v>0.004044129279219995</v>
       </c>
       <c r="F33">
-        <v>0.0005843147257150539</v>
+        <v>-0.01217982123300191</v>
       </c>
       <c r="G33">
-        <v>-0.02945224090087099</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.02141006180882475</v>
+      </c>
+      <c r="H33">
+        <v>-0.05823928777531823</v>
+      </c>
+      <c r="I33">
+        <v>-0.02654900258241131</v>
+      </c>
+      <c r="J33">
+        <v>0.02463689839069366</v>
+      </c>
+      <c r="K33">
+        <v>-0.01256616232819643</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.002699219365117838</v>
+        <v>0.01619245545587956</v>
       </c>
       <c r="C34">
-        <v>-0.05321228262990896</v>
+        <v>-0.05099875597939479</v>
       </c>
       <c r="D34">
-        <v>0.02052247083756105</v>
+        <v>0.02017288527169659</v>
       </c>
       <c r="E34">
-        <v>-0.0004715935843221773</v>
+        <v>-0.003027500137226472</v>
       </c>
       <c r="F34">
-        <v>0.01159159427736671</v>
+        <v>0.01288939851095884</v>
       </c>
       <c r="G34">
-        <v>-0.03973761592531736</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01623090144575705</v>
+      </c>
+      <c r="H34">
+        <v>-0.008935949419100926</v>
+      </c>
+      <c r="I34">
+        <v>-0.02233684025522864</v>
+      </c>
+      <c r="J34">
+        <v>-0.009255857460311705</v>
+      </c>
+      <c r="K34">
+        <v>-0.01350069582482797</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.003560919148220595</v>
+        <v>0.01000030720541956</v>
       </c>
       <c r="C35">
-        <v>-0.02196853441229627</v>
+        <v>-0.04192975911156407</v>
       </c>
       <c r="D35">
-        <v>0.007111352324263492</v>
+        <v>0.02169303884706887</v>
       </c>
       <c r="E35">
-        <v>-0.01017921915293041</v>
+        <v>-0.01712017015933208</v>
       </c>
       <c r="F35">
-        <v>-0.005043698234170941</v>
+        <v>-0.0009728016513430897</v>
       </c>
       <c r="G35">
-        <v>-0.02702264883070201</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.04235943098338029</v>
+      </c>
+      <c r="H35">
+        <v>-0.1514704363594896</v>
+      </c>
+      <c r="I35">
+        <v>-0.01609095793177809</v>
+      </c>
+      <c r="J35">
+        <v>-0.007178950143679144</v>
+      </c>
+      <c r="K35">
+        <v>-0.1342333147479446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.006576389993866455</v>
+        <v>0.01654798093634856</v>
       </c>
       <c r="C36">
-        <v>-0.05603145559800786</v>
+        <v>-0.0511484865330159</v>
       </c>
       <c r="D36">
-        <v>0.04816625345768213</v>
+        <v>0.04877123789634854</v>
       </c>
       <c r="E36">
-        <v>-0.003296578889824943</v>
+        <v>-0.003275115515932315</v>
       </c>
       <c r="F36">
-        <v>0.002998336207787908</v>
+        <v>-0.001873744773674499</v>
       </c>
       <c r="G36">
-        <v>-0.01968464259719931</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.004074819641745518</v>
+      </c>
+      <c r="H36">
+        <v>-0.07443921338557181</v>
+      </c>
+      <c r="I36">
+        <v>-0.01743068400099804</v>
+      </c>
+      <c r="J36">
+        <v>-0.006469701534935183</v>
+      </c>
+      <c r="K36">
+        <v>0.03135338204292177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.03168754411390091</v>
+        <v>0.01324451846149995</v>
       </c>
       <c r="C38">
-        <v>-0.05962409339841444</v>
+        <v>-0.06353573119589088</v>
       </c>
       <c r="D38">
-        <v>0.04244853574603651</v>
+        <v>0.04181858348701687</v>
       </c>
       <c r="E38">
-        <v>0.007453119984286061</v>
+        <v>0.02649274814232668</v>
       </c>
       <c r="F38">
-        <v>-0.01029124261957365</v>
+        <v>-0.01799658564025904</v>
       </c>
       <c r="G38">
-        <v>-0.007273654839688152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.007706917588610616</v>
+      </c>
+      <c r="H38">
+        <v>-0.08925183894584282</v>
+      </c>
+      <c r="I38">
+        <v>0.02212377380493577</v>
+      </c>
+      <c r="J38">
+        <v>0.05736265874195506</v>
+      </c>
+      <c r="K38">
+        <v>-0.05415354338962573</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.001273045519068114</v>
+        <v>0.01738481560884863</v>
       </c>
       <c r="C39">
-        <v>-0.1321598478583601</v>
+        <v>-0.1280665310007826</v>
       </c>
       <c r="D39">
-        <v>0.03907390087302384</v>
+        <v>0.05527888296100542</v>
       </c>
       <c r="E39">
-        <v>-0.01071183921938987</v>
+        <v>-0.004315708837602056</v>
       </c>
       <c r="F39">
-        <v>-0.03030343962421235</v>
+        <v>0.0001995988810753112</v>
       </c>
       <c r="G39">
-        <v>-0.07099700260909558</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.03908825575239163</v>
+      </c>
+      <c r="H39">
+        <v>-0.05302103863077751</v>
+      </c>
+      <c r="I39">
+        <v>-0.00997167741921217</v>
+      </c>
+      <c r="J39">
+        <v>-0.06783204835518705</v>
+      </c>
+      <c r="K39">
+        <v>0.01949609844178279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.01018438233291919</v>
+        <v>0.01339267338325359</v>
       </c>
       <c r="C40">
-        <v>-0.03001073509471529</v>
+        <v>-0.05828390435841843</v>
       </c>
       <c r="D40">
-        <v>0.03022928888409275</v>
+        <v>0.03739043680163123</v>
       </c>
       <c r="E40">
-        <v>-0.1250057783357129</v>
+        <v>-0.0438218133938914</v>
       </c>
       <c r="F40">
-        <v>-0.03556725672176026</v>
+        <v>-0.02900404197135425</v>
       </c>
       <c r="G40">
-        <v>-0.09072351869019508</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.1497396673801356</v>
+      </c>
+      <c r="H40">
+        <v>-0.03763230703692275</v>
+      </c>
+      <c r="I40">
+        <v>-0.05200051833010843</v>
+      </c>
+      <c r="J40">
+        <v>0.01521042849734701</v>
+      </c>
+      <c r="K40">
+        <v>-0.2659832329193538</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01195785270195121</v>
+        <v>0.02199968854055409</v>
       </c>
       <c r="C41">
-        <v>-0.02419621127528732</v>
+        <v>-0.04758564238390401</v>
       </c>
       <c r="D41">
-        <v>0.006006326152576974</v>
+        <v>0.01731507715715895</v>
       </c>
       <c r="E41">
-        <v>0.02108679463799032</v>
+        <v>0.007784844360438121</v>
       </c>
       <c r="F41">
-        <v>0.03096953369058413</v>
+        <v>0.02384935945447815</v>
       </c>
       <c r="G41">
-        <v>0.03290573108074797</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.0114008568137201</v>
+      </c>
+      <c r="H41">
+        <v>-0.02359631376281254</v>
+      </c>
+      <c r="I41">
+        <v>0.006353685130878463</v>
+      </c>
+      <c r="J41">
+        <v>0.0232083878451373</v>
+      </c>
+      <c r="K41">
+        <v>-0.0572200363402981</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.004391005402920864</v>
+        <v>0.01853560130392755</v>
       </c>
       <c r="C43">
-        <v>-0.02286174866877044</v>
+        <v>-0.04439482587539352</v>
       </c>
       <c r="D43">
-        <v>0.01003847998048672</v>
+        <v>0.02994401792965301</v>
       </c>
       <c r="E43">
-        <v>0.01159742967848172</v>
+        <v>0.01306330283317693</v>
       </c>
       <c r="F43">
-        <v>0.003213122656326131</v>
+        <v>0.008628207951533269</v>
       </c>
       <c r="G43">
-        <v>0.001940219638450267</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.003931984477120087</v>
+      </c>
+      <c r="H43">
+        <v>-0.04251159820679182</v>
+      </c>
+      <c r="I43">
+        <v>0.002530071277540169</v>
+      </c>
+      <c r="J43">
+        <v>-0.003921946543890178</v>
+      </c>
+      <c r="K43">
+        <v>-0.04441081909031883</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.0249422531801472</v>
+        <v>0.01490411643786112</v>
       </c>
       <c r="C44">
-        <v>-0.09540643381855457</v>
+        <v>-0.09764206684249656</v>
       </c>
       <c r="D44">
-        <v>0.02367295578268363</v>
+        <v>0.05678606752763128</v>
       </c>
       <c r="E44">
-        <v>-0.047731229668547</v>
+        <v>0.006222219543945781</v>
       </c>
       <c r="F44">
-        <v>-0.06011769588041886</v>
+        <v>-0.06449180749508519</v>
       </c>
       <c r="G44">
-        <v>-0.03503635936433398</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.04272949252958669</v>
+      </c>
+      <c r="H44">
+        <v>-0.05323587954883467</v>
+      </c>
+      <c r="I44">
+        <v>-0.01381800874511332</v>
+      </c>
+      <c r="J44">
+        <v>-0.04861867495744132</v>
+      </c>
+      <c r="K44">
+        <v>0.08449002821096387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.006122326732432174</v>
+        <v>0.004765361629901119</v>
       </c>
       <c r="C46">
-        <v>-0.07386347468666528</v>
+        <v>-0.06550812603500974</v>
       </c>
       <c r="D46">
-        <v>0.04176306183660479</v>
+        <v>0.03029922555189968</v>
       </c>
       <c r="E46">
-        <v>-0.02367938330463717</v>
+        <v>-0.01096242544614029</v>
       </c>
       <c r="F46">
-        <v>-0.004875203216314781</v>
+        <v>0.01576115559341849</v>
       </c>
       <c r="G46">
-        <v>-0.05516573256533873</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.03182742527374961</v>
+      </c>
+      <c r="H46">
+        <v>-0.1053911549021476</v>
+      </c>
+      <c r="I46">
+        <v>0.01547431760667372</v>
+      </c>
+      <c r="J46">
+        <v>-0.02105771853493609</v>
+      </c>
+      <c r="K46">
+        <v>-0.07030273296912495</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.01069633715889208</v>
+        <v>0.02444443546677725</v>
       </c>
       <c r="C47">
-        <v>-0.08838835480444943</v>
+        <v>-0.08345957162107186</v>
       </c>
       <c r="D47">
-        <v>0.0417349420454847</v>
+        <v>0.04525484537184642</v>
       </c>
       <c r="E47">
-        <v>0.02279921870483519</v>
+        <v>-0.005864967375028213</v>
       </c>
       <c r="F47">
-        <v>0.04454702361073852</v>
+        <v>0.02186062528591435</v>
       </c>
       <c r="G47">
-        <v>-0.04748535056874437</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.001578318403592016</v>
+      </c>
+      <c r="H47">
+        <v>-0.07282844745497088</v>
+      </c>
+      <c r="I47">
+        <v>0.005589539879220962</v>
+      </c>
+      <c r="J47">
+        <v>0.02039657985313239</v>
+      </c>
+      <c r="K47">
+        <v>-0.04747715467902148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.01202796981741231</v>
+        <v>0.02210375489811382</v>
       </c>
       <c r="C48">
-        <v>-0.05785271573051224</v>
+        <v>-0.05336311203612516</v>
       </c>
       <c r="D48">
-        <v>0.05731361818123474</v>
+        <v>0.05524238018326171</v>
       </c>
       <c r="E48">
-        <v>0.001700338637772196</v>
+        <v>0.003699671010882258</v>
       </c>
       <c r="F48">
-        <v>0.004777331845473817</v>
+        <v>0.007044161523535141</v>
       </c>
       <c r="G48">
-        <v>-0.01952794804746373</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.0075466478902398</v>
+      </c>
+      <c r="H48">
+        <v>-0.09767786431017156</v>
+      </c>
+      <c r="I48">
+        <v>-0.0462376423643286</v>
+      </c>
+      <c r="J48">
+        <v>-0.01379080476923117</v>
+      </c>
+      <c r="K48">
+        <v>0.07466926902884691</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.007492234511103812</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.02581119655643494</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.000989002322052173</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.01306296171411025</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.03239805273139713</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.03394151523135318</v>
+      </c>
+      <c r="H49">
+        <v>0.02001837776295162</v>
+      </c>
+      <c r="I49">
+        <v>-0.05898119054422915</v>
+      </c>
+      <c r="J49">
+        <v>-0.03210677225928645</v>
+      </c>
+      <c r="K49">
+        <v>0.0268610614640446</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.001166245993950132</v>
+        <v>0.01419125027723368</v>
       </c>
       <c r="C50">
-        <v>-0.07477453804508212</v>
+        <v>-0.08013314403709224</v>
       </c>
       <c r="D50">
-        <v>0.02743153861009456</v>
+        <v>0.02941006361965849</v>
       </c>
       <c r="E50">
-        <v>0.002269336605022682</v>
+        <v>0.000574257022071092</v>
       </c>
       <c r="F50">
-        <v>-0.008513056506459121</v>
+        <v>-0.003184284176320884</v>
       </c>
       <c r="G50">
-        <v>-0.005523042316856077</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.01458015227159461</v>
+      </c>
+      <c r="H50">
+        <v>-0.05976623441179704</v>
+      </c>
+      <c r="I50">
+        <v>-0.004561714483854063</v>
+      </c>
+      <c r="J50">
+        <v>0.04290858889866438</v>
+      </c>
+      <c r="K50">
+        <v>-0.03806896863767589</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.00364139964724132</v>
+        <v>-0.006375134952809702</v>
       </c>
       <c r="C51">
-        <v>-0.07567960039936467</v>
+        <v>-0.03767160457059333</v>
       </c>
       <c r="D51">
-        <v>0.003052369143151023</v>
+        <v>0.02242424039563608</v>
       </c>
       <c r="E51">
-        <v>-0.05994339946084998</v>
+        <v>-0.01914229751996224</v>
       </c>
       <c r="F51">
-        <v>-0.05292912322221394</v>
+        <v>-0.02610665125381524</v>
       </c>
       <c r="G51">
-        <v>-0.01545931920542833</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.02751156414217866</v>
+      </c>
+      <c r="H51">
+        <v>-0.09475305966622444</v>
+      </c>
+      <c r="I51">
+        <v>-0.04082190358654147</v>
+      </c>
+      <c r="J51">
+        <v>0.006411240167312527</v>
+      </c>
+      <c r="K51">
+        <v>0.1098199416617121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.04459131260516656</v>
+        <v>0.05835198724596583</v>
       </c>
       <c r="C53">
-        <v>-0.1360523023047337</v>
+        <v>-0.13111230735893</v>
       </c>
       <c r="D53">
-        <v>0.06269102465774454</v>
+        <v>0.05686894014595336</v>
       </c>
       <c r="E53">
-        <v>0.1302140391519157</v>
+        <v>0.005639783798829149</v>
       </c>
       <c r="F53">
-        <v>0.05613280049771687</v>
+        <v>0.07125670697226984</v>
       </c>
       <c r="G53">
-        <v>0.03418197318936173</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.08717327308052168</v>
+      </c>
+      <c r="H53">
+        <v>0.03311383082012493</v>
+      </c>
+      <c r="I53">
+        <v>-0.003119594146923131</v>
+      </c>
+      <c r="J53">
+        <v>0.0428139736567964</v>
+      </c>
+      <c r="K53">
+        <v>-0.032924321832668</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.005957469036428804</v>
+        <v>0.01902889498442488</v>
       </c>
       <c r="C54">
-        <v>-0.07391123957443697</v>
+        <v>-0.07801071022214269</v>
       </c>
       <c r="D54">
-        <v>0.008449891870724544</v>
+        <v>0.01302386058547757</v>
       </c>
       <c r="E54">
-        <v>0.02514056555369382</v>
+        <v>-0.006496845822966381</v>
       </c>
       <c r="F54">
-        <v>0.009161624856376912</v>
+        <v>0.02651712808842599</v>
       </c>
       <c r="G54">
-        <v>-0.02057662304448699</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.0133291664900653</v>
+      </c>
+      <c r="H54">
+        <v>-0.05279326013250731</v>
+      </c>
+      <c r="I54">
+        <v>-0.02987072751614703</v>
+      </c>
+      <c r="J54">
+        <v>-0.02640313327678971</v>
+      </c>
+      <c r="K54">
+        <v>-0.01145802724711614</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.02655547240417329</v>
+        <v>0.03368539768819</v>
       </c>
       <c r="C55">
-        <v>-0.09693391094915761</v>
+        <v>-0.08781474776608508</v>
       </c>
       <c r="D55">
-        <v>0.06632552612872232</v>
+        <v>0.05512988711112935</v>
       </c>
       <c r="E55">
-        <v>0.06064175429326977</v>
+        <v>0.01282074348312533</v>
       </c>
       <c r="F55">
-        <v>0.04449624912921115</v>
+        <v>0.05206860203577274</v>
       </c>
       <c r="G55">
-        <v>-0.003503299535064922</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.04271074107766532</v>
+      </c>
+      <c r="H55">
+        <v>0.01748221334979833</v>
+      </c>
+      <c r="I55">
+        <v>-0.0133087950871463</v>
+      </c>
+      <c r="J55">
+        <v>-0.005735144285163154</v>
+      </c>
+      <c r="K55">
+        <v>-0.01624835977174504</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.02893365451064584</v>
+        <v>0.04531360952028068</v>
       </c>
       <c r="C56">
-        <v>-0.1706082921803452</v>
+        <v>-0.1511570505422886</v>
       </c>
       <c r="D56">
-        <v>0.05571339952987475</v>
+        <v>0.07968848228102646</v>
       </c>
       <c r="E56">
-        <v>0.1181874442476063</v>
+        <v>-0.009383544042278169</v>
       </c>
       <c r="F56">
-        <v>0.09383270987586045</v>
+        <v>0.09680182450692168</v>
       </c>
       <c r="G56">
-        <v>0.06979705786598299</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1567315452834004</v>
+      </c>
+      <c r="H56">
+        <v>0.05294990705966281</v>
+      </c>
+      <c r="I56">
+        <v>-0.02430470899106508</v>
+      </c>
+      <c r="J56">
+        <v>0.03143216239406028</v>
+      </c>
+      <c r="K56">
+        <v>0.01304896773751968</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.03629959512086042</v>
+        <v>0.02254706588765249</v>
       </c>
       <c r="C58">
-        <v>-0.2638826567286994</v>
+        <v>-0.1765847430116108</v>
       </c>
       <c r="D58">
-        <v>-0.05988606748464385</v>
+        <v>0.038334210506789</v>
       </c>
       <c r="E58">
-        <v>-0.2264521957656938</v>
+        <v>-0.03076928933209289</v>
       </c>
       <c r="F58">
-        <v>-0.322016369949303</v>
+        <v>-0.3260178877850818</v>
       </c>
       <c r="G58">
-        <v>0.22011137598947</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.05890236024692384</v>
+      </c>
+      <c r="H58">
+        <v>-0.03777571041548605</v>
+      </c>
+      <c r="I58">
+        <v>0.03747623938644097</v>
+      </c>
+      <c r="J58">
+        <v>0.06070403017326749</v>
+      </c>
+      <c r="K58">
+        <v>0.4426136120108295</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2796463350539459</v>
+        <v>0.2880227099351484</v>
       </c>
       <c r="C59">
-        <v>0.00623178544784906</v>
+        <v>0.04484784068069666</v>
       </c>
       <c r="D59">
-        <v>-0.03337637421470699</v>
+        <v>-0.006337241940546565</v>
       </c>
       <c r="E59">
-        <v>-0.05358718638045643</v>
+        <v>-0.0344436989026058</v>
       </c>
       <c r="F59">
-        <v>0.0452214871978953</v>
+        <v>-0.03870221338760375</v>
       </c>
       <c r="G59">
-        <v>-0.0217311918258975</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.002608071833704586</v>
+      </c>
+      <c r="H59">
+        <v>0.02075409569237734</v>
+      </c>
+      <c r="I59">
+        <v>0.01126962506159489</v>
+      </c>
+      <c r="J59">
+        <v>0.02079186128430122</v>
+      </c>
+      <c r="K59">
+        <v>-0.02559369727278446</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1142330242120651</v>
+        <v>0.1474543962323386</v>
       </c>
       <c r="C60">
-        <v>-0.15317937938733</v>
+        <v>-0.1539144266147089</v>
       </c>
       <c r="D60">
-        <v>0.07412115402705442</v>
+        <v>0.04782456441311837</v>
       </c>
       <c r="E60">
-        <v>0.05445437081467645</v>
+        <v>-0.01645699891903559</v>
       </c>
       <c r="F60">
-        <v>0.03406306696280316</v>
+        <v>0.1344374180338582</v>
       </c>
       <c r="G60">
-        <v>-0.3005420579594751</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.2570129906954066</v>
+      </c>
+      <c r="H60">
+        <v>0.2304335020607945</v>
+      </c>
+      <c r="I60">
+        <v>-0.003339350963165578</v>
+      </c>
+      <c r="J60">
+        <v>-0.02609064300717431</v>
+      </c>
+      <c r="K60">
+        <v>0.03353404803081039</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.002275863434098802</v>
+        <v>0.02025242683761311</v>
       </c>
       <c r="C61">
-        <v>-0.08696729608122632</v>
+        <v>-0.09687477881245518</v>
       </c>
       <c r="D61">
-        <v>0.04793331008262122</v>
+        <v>0.05139345523827506</v>
       </c>
       <c r="E61">
-        <v>0.02362882879070349</v>
+        <v>-0.002423153754918889</v>
       </c>
       <c r="F61">
-        <v>0.003257503091298697</v>
+        <v>0.03264327412428496</v>
       </c>
       <c r="G61">
-        <v>-0.07131790030418907</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02180580390990117</v>
+      </c>
+      <c r="H61">
+        <v>-0.06322157421579785</v>
+      </c>
+      <c r="I61">
+        <v>-0.03337934648317941</v>
+      </c>
+      <c r="J61">
+        <v>-0.02461111741772479</v>
+      </c>
+      <c r="K61">
+        <v>-0.02296565364779012</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002092834552008548</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01288648844030632</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.003666144523484056</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.001592218834172853</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01355309379087483</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.01579727094874545</v>
+      </c>
+      <c r="H62">
+        <v>-0.005113121262190869</v>
+      </c>
+      <c r="I62">
+        <v>-0.0582913286294614</v>
+      </c>
+      <c r="J62">
+        <v>0.02065468957766001</v>
+      </c>
+      <c r="K62">
+        <v>-0.009400198055291513</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.001782884002048538</v>
+        <v>0.02708848413744042</v>
       </c>
       <c r="C63">
-        <v>-0.07081180151379285</v>
+        <v>-0.07014943359552275</v>
       </c>
       <c r="D63">
-        <v>0.0396159176964094</v>
+        <v>0.05939060274925446</v>
       </c>
       <c r="E63">
-        <v>0.03053145844240744</v>
+        <v>-0.002787601681131207</v>
       </c>
       <c r="F63">
-        <v>-0.007518898022409046</v>
+        <v>0.02286323636924917</v>
       </c>
       <c r="G63">
-        <v>-0.02942842127374214</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.002389087413210125</v>
+      </c>
+      <c r="H63">
+        <v>-0.06202316128011937</v>
+      </c>
+      <c r="I63">
+        <v>-0.03923166129233033</v>
+      </c>
+      <c r="J63">
+        <v>-0.003867895477871772</v>
+      </c>
+      <c r="K63">
+        <v>-0.02237417554987266</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.005727785017596606</v>
+        <v>0.01570454535350752</v>
       </c>
       <c r="C64">
-        <v>-0.08025327150702206</v>
+        <v>-0.09062923965237429</v>
       </c>
       <c r="D64">
-        <v>0.06559518488074402</v>
+        <v>0.03342596766328575</v>
       </c>
       <c r="E64">
-        <v>-0.01211881149450746</v>
+        <v>0.0216298946771782</v>
       </c>
       <c r="F64">
-        <v>-0.02510282084026945</v>
+        <v>-0.03533386600009204</v>
       </c>
       <c r="G64">
-        <v>-0.05504352962933531</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.0677264793972524</v>
+      </c>
+      <c r="H64">
+        <v>-0.05136446549412237</v>
+      </c>
+      <c r="I64">
+        <v>-0.03610901466290233</v>
+      </c>
+      <c r="J64">
+        <v>-0.02570873070547309</v>
+      </c>
+      <c r="K64">
+        <v>-0.02668426621749839</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.01311674703412796</v>
+        <v>0.02999033100426079</v>
       </c>
       <c r="C65">
-        <v>-0.07388502252104727</v>
+        <v>-0.09340781179222737</v>
       </c>
       <c r="D65">
-        <v>0.0276636799199159</v>
+        <v>0.0194230277796394</v>
       </c>
       <c r="E65">
-        <v>-0.03644325491239832</v>
+        <v>0.0253214762467203</v>
       </c>
       <c r="F65">
-        <v>-0.04645499783747292</v>
+        <v>-0.009885319187010341</v>
       </c>
       <c r="G65">
-        <v>-0.02396350662250107</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.09961454957578804</v>
+      </c>
+      <c r="H65">
+        <v>-0.00788128502760994</v>
+      </c>
+      <c r="I65">
+        <v>0.01485869087846976</v>
+      </c>
+      <c r="J65">
+        <v>-0.07501480683022108</v>
+      </c>
+      <c r="K65">
+        <v>0.1064280074747376</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.003644367180390701</v>
+        <v>0.01426971989271437</v>
       </c>
       <c r="C66">
-        <v>-0.1700376002605651</v>
+        <v>-0.1652962899696193</v>
       </c>
       <c r="D66">
-        <v>0.02245194954145424</v>
+        <v>0.04603669249112681</v>
       </c>
       <c r="E66">
-        <v>-0.05088738796336671</v>
+        <v>-0.01790220349521809</v>
       </c>
       <c r="F66">
-        <v>-0.02245742916717334</v>
+        <v>-0.007951902075936282</v>
       </c>
       <c r="G66">
-        <v>-0.08933558567091038</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.02297733843157931</v>
+      </c>
+      <c r="H66">
+        <v>-0.06322275063912951</v>
+      </c>
+      <c r="I66">
+        <v>-0.02568137530590538</v>
+      </c>
+      <c r="J66">
+        <v>-0.04680651882976791</v>
+      </c>
+      <c r="K66">
+        <v>0.02036614393833024</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.0291508446137713</v>
+        <v>0.02107979588527141</v>
       </c>
       <c r="C67">
-        <v>-0.03982629229905615</v>
+        <v>-0.05335735168725066</v>
       </c>
       <c r="D67">
-        <v>0.0625432179390137</v>
+        <v>0.04370462021917275</v>
       </c>
       <c r="E67">
-        <v>0.04077328370537196</v>
+        <v>0.03115631438382645</v>
       </c>
       <c r="F67">
-        <v>0.002039954767213405</v>
+        <v>0.01738300469706893</v>
       </c>
       <c r="G67">
-        <v>-0.01882307584435794</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.0166257547558488</v>
+      </c>
+      <c r="H67">
+        <v>-0.06605060286310663</v>
+      </c>
+      <c r="I67">
+        <v>0.03952503597163611</v>
+      </c>
+      <c r="J67">
+        <v>0.04380618656537733</v>
+      </c>
+      <c r="K67">
+        <v>-0.06945970791742828</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.289399296699342</v>
+        <v>0.2949134101234044</v>
       </c>
       <c r="C68">
-        <v>0.04220183844376327</v>
+        <v>0.07092395350791293</v>
       </c>
       <c r="D68">
-        <v>-0.02844006748551524</v>
+        <v>-0.02633593872555978</v>
       </c>
       <c r="E68">
-        <v>-0.029410662879462</v>
+        <v>-0.0127350392370933</v>
       </c>
       <c r="F68">
-        <v>-0.009135766772864026</v>
+        <v>-0.0320385085910035</v>
       </c>
       <c r="G68">
-        <v>0.01430286641488393</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.0202872040532409</v>
+      </c>
+      <c r="H68">
+        <v>-0.02640866166840082</v>
+      </c>
+      <c r="I68">
+        <v>-0.05688206177294807</v>
+      </c>
+      <c r="J68">
+        <v>0.05833813474741238</v>
+      </c>
+      <c r="K68">
+        <v>-0.004569693049593566</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.01329753192465121</v>
+        <v>0.007187151372621251</v>
       </c>
       <c r="C69">
-        <v>-0.05845276818340601</v>
+        <v>-0.0516949899255008</v>
       </c>
       <c r="D69">
-        <v>0.04347020453570632</v>
+        <v>0.02328174544670254</v>
       </c>
       <c r="E69">
-        <v>0.01995342607614929</v>
+        <v>-0.002069051414402343</v>
       </c>
       <c r="F69">
-        <v>0.003533648852119285</v>
+        <v>0.01317047869208376</v>
       </c>
       <c r="G69">
-        <v>-0.01916008462510292</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02125050497983566</v>
+      </c>
+      <c r="H69">
+        <v>-0.04658637618616918</v>
+      </c>
+      <c r="I69">
+        <v>-0.001616350886692582</v>
+      </c>
+      <c r="J69">
+        <v>0.01712592731090868</v>
+      </c>
+      <c r="K69">
+        <v>-0.01651055034224266</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2800559009993476</v>
+        <v>0.2767513227054103</v>
       </c>
       <c r="C71">
-        <v>0.05173855661811685</v>
+        <v>0.07562949606062003</v>
       </c>
       <c r="D71">
-        <v>-0.03530927582493641</v>
+        <v>-0.02545114721530299</v>
       </c>
       <c r="E71">
-        <v>-0.02017294359880027</v>
+        <v>0.0008578291257780012</v>
       </c>
       <c r="F71">
-        <v>-0.02565037908199832</v>
+        <v>-0.06014575883327831</v>
       </c>
       <c r="G71">
-        <v>0.0009191922840507522</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.02364223171328984</v>
+      </c>
+      <c r="H71">
+        <v>-0.05098907450383948</v>
+      </c>
+      <c r="I71">
+        <v>-0.001556497595993764</v>
+      </c>
+      <c r="J71">
+        <v>0.131487625122633</v>
+      </c>
+      <c r="K71">
+        <v>0.02374202478500031</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.03244866984251144</v>
+        <v>0.05450533627645374</v>
       </c>
       <c r="C72">
-        <v>-0.1506889210751152</v>
+        <v>-0.1404126565529087</v>
       </c>
       <c r="D72">
-        <v>0.06425982280006012</v>
+        <v>0.04545308001225001</v>
       </c>
       <c r="E72">
-        <v>-0.01546696222112221</v>
+        <v>0.002569995304623708</v>
       </c>
       <c r="F72">
-        <v>-0.1057304980884922</v>
+        <v>0.02965311392940425</v>
       </c>
       <c r="G72">
-        <v>-0.1059967391253417</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.02815196196912455</v>
+      </c>
+      <c r="H72">
+        <v>-0.02794567209552662</v>
+      </c>
+      <c r="I72">
+        <v>-0.02310115860553822</v>
+      </c>
+      <c r="J72">
+        <v>-0.1143040535174715</v>
+      </c>
+      <c r="K72">
+        <v>0.06938549286051486</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.07338075202642735</v>
+        <v>0.1512009182069605</v>
       </c>
       <c r="C73">
-        <v>-0.1384112174091783</v>
+        <v>-0.1948411913604761</v>
       </c>
       <c r="D73">
-        <v>0.1150776161328933</v>
+        <v>0.08333075647075049</v>
       </c>
       <c r="E73">
-        <v>0.1361439706294438</v>
+        <v>0.03747439552359508</v>
       </c>
       <c r="F73">
-        <v>0.01308141931979521</v>
+        <v>0.2456017929827697</v>
       </c>
       <c r="G73">
-        <v>-0.4148666052169775</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.3885706293023898</v>
+      </c>
+      <c r="H73">
+        <v>0.2919671816558362</v>
+      </c>
+      <c r="I73">
+        <v>0.09291721115301597</v>
+      </c>
+      <c r="J73">
+        <v>0.06217717299716186</v>
+      </c>
+      <c r="K73">
+        <v>0.06727475260265431</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.0201665289417072</v>
+        <v>0.04148069302918191</v>
       </c>
       <c r="C74">
-        <v>-0.09678597694261554</v>
+        <v>-0.1028634423696449</v>
       </c>
       <c r="D74">
-        <v>0.06990595421593998</v>
+        <v>0.04805706208039612</v>
       </c>
       <c r="E74">
-        <v>0.07735087936716727</v>
+        <v>0.01707627985771003</v>
       </c>
       <c r="F74">
-        <v>0.05257251788289452</v>
+        <v>0.0429375603708435</v>
       </c>
       <c r="G74">
-        <v>0.01847831579445634</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.04938141417539578</v>
+      </c>
+      <c r="H74">
+        <v>0.004614072805058728</v>
+      </c>
+      <c r="I74">
+        <v>-0.04850774613150705</v>
+      </c>
+      <c r="J74">
+        <v>0.0141959011791385</v>
+      </c>
+      <c r="K74">
+        <v>0.01411953556596627</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.06354803263366167</v>
+        <v>0.06471849724735031</v>
       </c>
       <c r="C75">
-        <v>-0.141087386386897</v>
+        <v>-0.1646644955303579</v>
       </c>
       <c r="D75">
-        <v>0.08604336841864239</v>
+        <v>0.08363905100958668</v>
       </c>
       <c r="E75">
-        <v>0.181289374851752</v>
+        <v>0.07837158027976276</v>
       </c>
       <c r="F75">
-        <v>0.07468255514145976</v>
+        <v>0.1005893436805052</v>
       </c>
       <c r="G75">
-        <v>0.1573949516202082</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.2245295209070262</v>
+      </c>
+      <c r="H75">
+        <v>0.04155180057400369</v>
+      </c>
+      <c r="I75">
+        <v>0.00164101383895248</v>
+      </c>
+      <c r="J75">
+        <v>0.1315017023755115</v>
+      </c>
+      <c r="K75">
+        <v>-0.08971241198094528</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.02689694622370327</v>
+        <v>0.04294537856142528</v>
       </c>
       <c r="C76">
-        <v>-0.1143937128361696</v>
+        <v>-0.1231563561030145</v>
       </c>
       <c r="D76">
-        <v>0.0587453590963091</v>
+        <v>0.07298809203316926</v>
       </c>
       <c r="E76">
-        <v>0.09475590851955776</v>
+        <v>0.01556954712003981</v>
       </c>
       <c r="F76">
-        <v>0.08825773143829994</v>
+        <v>0.08273943559772018</v>
       </c>
       <c r="G76">
-        <v>0.01819796188934678</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.08056735063438988</v>
+      </c>
+      <c r="H76">
+        <v>0.02035259442876662</v>
+      </c>
+      <c r="I76">
+        <v>-0.06266212805518348</v>
+      </c>
+      <c r="J76">
+        <v>0.009855813762703494</v>
+      </c>
+      <c r="K76">
+        <v>-0.04193177572433261</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.0760647995722863</v>
+        <v>0.05013272048064203</v>
       </c>
       <c r="C77">
-        <v>-0.307660472597221</v>
+        <v>-0.3924114250625908</v>
       </c>
       <c r="D77">
-        <v>-0.8600760738944391</v>
+        <v>-0.9027798560062149</v>
       </c>
       <c r="E77">
-        <v>0.3045241045706961</v>
+        <v>0.05241145168436671</v>
       </c>
       <c r="F77">
-        <v>0.02558588534651356</v>
+        <v>0.0809069465585488</v>
       </c>
       <c r="G77">
-        <v>-0.05103745821222976</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.0354350937827797</v>
+      </c>
+      <c r="H77">
+        <v>-0.04886343636702933</v>
+      </c>
+      <c r="I77">
+        <v>-0.03672234211466767</v>
+      </c>
+      <c r="J77">
+        <v>0.00894750361237621</v>
+      </c>
+      <c r="K77">
+        <v>-0.002695227218415514</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.02965700818329749</v>
+        <v>0.03533574264649898</v>
       </c>
       <c r="C78">
-        <v>-0.1434848407750671</v>
+        <v>-0.1144726350680652</v>
       </c>
       <c r="D78">
-        <v>0.09657159285695037</v>
+        <v>0.09702582348110392</v>
       </c>
       <c r="E78">
-        <v>-0.07084374090987132</v>
+        <v>-0.04213604584725367</v>
       </c>
       <c r="F78">
-        <v>0.09457089386431057</v>
+        <v>0.005620449455955992</v>
       </c>
       <c r="G78">
-        <v>0.03847953124361041</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.1223948931700584</v>
+      </c>
+      <c r="H78">
+        <v>-0.04627267363700649</v>
+      </c>
+      <c r="I78">
+        <v>-0.0007446402010763575</v>
+      </c>
+      <c r="J78">
+        <v>-0.0582316833303191</v>
+      </c>
+      <c r="K78">
+        <v>0.431949167538433</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.04014680197519067</v>
+        <v>0.05697922069101122</v>
       </c>
       <c r="C79">
-        <v>-0.1683320497786445</v>
+        <v>-0.1393193589228899</v>
       </c>
       <c r="D79">
-        <v>0.1105337781262642</v>
+        <v>0.06879202681286271</v>
       </c>
       <c r="E79">
-        <v>0.1257002864039809</v>
+        <v>0.007764037237890456</v>
       </c>
       <c r="F79">
-        <v>0.1270913234591246</v>
+        <v>0.06337925354673517</v>
       </c>
       <c r="G79">
-        <v>0.182517015558978</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.2411150059804467</v>
+      </c>
+      <c r="H79">
+        <v>0.01149272988700361</v>
+      </c>
+      <c r="I79">
+        <v>-0.0178518151656008</v>
+      </c>
+      <c r="J79">
+        <v>0.09753815898649237</v>
+      </c>
+      <c r="K79">
+        <v>0.03822912910402038</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.01123051963398784</v>
+        <v>0.02107315736797826</v>
       </c>
       <c r="C80">
-        <v>-0.04416138649502695</v>
+        <v>-0.04909879991053023</v>
       </c>
       <c r="D80">
-        <v>0.05089875581034875</v>
+        <v>0.03824537912231141</v>
       </c>
       <c r="E80">
-        <v>-0.0067222996478098</v>
+        <v>-0.05410353735440562</v>
       </c>
       <c r="F80">
-        <v>0.0320085821033971</v>
+        <v>-0.01337510381432885</v>
       </c>
       <c r="G80">
-        <v>0.007703494805619532</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.05935502904387506</v>
+      </c>
+      <c r="H80">
+        <v>0.02414931975290814</v>
+      </c>
+      <c r="I80">
+        <v>0.0289819436284988</v>
+      </c>
+      <c r="J80">
+        <v>0.03132489724805133</v>
+      </c>
+      <c r="K80">
+        <v>-0.08066680163222002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.01165701729063554</v>
+        <v>0.01734334478642071</v>
       </c>
       <c r="C81">
-        <v>-0.08807263210607739</v>
+        <v>-0.1007377370957917</v>
       </c>
       <c r="D81">
-        <v>0.07972126910015961</v>
+        <v>0.05541618234659523</v>
       </c>
       <c r="E81">
-        <v>0.09911789412309835</v>
+        <v>-4.244822230253964e-05</v>
       </c>
       <c r="F81">
-        <v>0.0928750100694012</v>
+        <v>0.04852382751828175</v>
       </c>
       <c r="G81">
-        <v>0.04804130438611481</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.116790064860293</v>
+      </c>
+      <c r="H81">
+        <v>-0.03748379515762545</v>
+      </c>
+      <c r="I81">
+        <v>-0.0198676342384654</v>
+      </c>
+      <c r="J81">
+        <v>0.05905083928485455</v>
+      </c>
+      <c r="K81">
+        <v>-0.03713605532157773</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.02964901864090734</v>
+        <v>0.04636632726950533</v>
       </c>
       <c r="C82">
-        <v>-0.09066029141178518</v>
+        <v>-0.1028444614503382</v>
       </c>
       <c r="D82">
-        <v>0.07419187704568907</v>
+        <v>0.06714580916983195</v>
       </c>
       <c r="E82">
-        <v>0.1123751039860355</v>
+        <v>0.009519049307679973</v>
       </c>
       <c r="F82">
-        <v>0.06529056779806636</v>
+        <v>0.07441067417486091</v>
       </c>
       <c r="G82">
-        <v>0.01610988974043029</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.09354157587351491</v>
+      </c>
+      <c r="H82">
+        <v>0.001277348683838416</v>
+      </c>
+      <c r="I82">
+        <v>-0.03117233998880078</v>
+      </c>
+      <c r="J82">
+        <v>0.02902265376636529</v>
+      </c>
+      <c r="K82">
+        <v>-0.02138290381636902</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.002747319468061578</v>
+        <v>0.0003388019088239768</v>
       </c>
       <c r="C83">
-        <v>-0.04354973400787188</v>
+        <v>0.01413844708329539</v>
       </c>
       <c r="D83">
-        <v>-0.1548601680348465</v>
+        <v>-0.05893488896716417</v>
       </c>
       <c r="E83">
-        <v>-0.499447898940739</v>
+        <v>-0.9479194148205029</v>
       </c>
       <c r="F83">
-        <v>0.7668469495258917</v>
+        <v>0.1284805874570172</v>
       </c>
       <c r="G83">
-        <v>-0.0573960861350318</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.06208228380762976</v>
+      </c>
+      <c r="H83">
+        <v>0.1045017761699428</v>
+      </c>
+      <c r="I83">
+        <v>-0.02386810109843318</v>
+      </c>
+      <c r="J83">
+        <v>-0.0761205634762674</v>
+      </c>
+      <c r="K83">
+        <v>0.01978950112660204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>1.777866255414048e-05</v>
+        <v>-0.0003431829969356932</v>
       </c>
       <c r="C84">
-        <v>-0.05881502023300817</v>
+        <v>-0.04469088207189981</v>
       </c>
       <c r="D84">
-        <v>0.03361661849873963</v>
+        <v>0.06136206754791455</v>
       </c>
       <c r="E84">
-        <v>-0.08006836199519798</v>
+        <v>0.001442258430938065</v>
       </c>
       <c r="F84">
-        <v>-0.1179086885288995</v>
+        <v>-0.09824875984915157</v>
       </c>
       <c r="G84">
-        <v>0.07589055907977335</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.03591894241780397</v>
+      </c>
+      <c r="H84">
+        <v>-0.08427567546253066</v>
+      </c>
+      <c r="I84">
+        <v>-0.07862840608108429</v>
+      </c>
+      <c r="J84">
+        <v>-0.09863662511715175</v>
+      </c>
+      <c r="K84">
+        <v>-0.05083298463870449</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.02213817673216385</v>
+        <v>0.02997695963104082</v>
       </c>
       <c r="C85">
-        <v>-0.134669007311988</v>
+        <v>-0.1172020999033906</v>
       </c>
       <c r="D85">
-        <v>0.08747670863503633</v>
+        <v>0.08236998582854245</v>
       </c>
       <c r="E85">
-        <v>0.1291784350437404</v>
+        <v>0.02510772455685974</v>
       </c>
       <c r="F85">
-        <v>0.128582363006749</v>
+        <v>0.1284735872341298</v>
       </c>
       <c r="G85">
-        <v>0.1164792398754736</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.2121739965843283</v>
+      </c>
+      <c r="H85">
+        <v>0.05408411950050247</v>
+      </c>
+      <c r="I85">
+        <v>-0.0772618041198936</v>
+      </c>
+      <c r="J85">
+        <v>0.09914808701106276</v>
+      </c>
+      <c r="K85">
+        <v>-0.05936844888097644</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.0195981963131956</v>
+        <v>0.01561320136986442</v>
       </c>
       <c r="C86">
-        <v>-0.06772667551643925</v>
+        <v>-0.08137817931049381</v>
       </c>
       <c r="D86">
-        <v>-0.0331749022773049</v>
+        <v>0.02564069070754713</v>
       </c>
       <c r="E86">
-        <v>-0.02037943406794338</v>
+        <v>-0.01337469877122271</v>
       </c>
       <c r="F86">
-        <v>-0.06569939491651154</v>
+        <v>-0.08388963559384455</v>
       </c>
       <c r="G86">
-        <v>-0.0330108432042858</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.05283953768150278</v>
+      </c>
+      <c r="H86">
+        <v>-0.008358269892840773</v>
+      </c>
+      <c r="I86">
+        <v>0.1441047172498084</v>
+      </c>
+      <c r="J86">
+        <v>0.1187985110281851</v>
+      </c>
+      <c r="K86">
+        <v>0.1490082727555587</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.04088365354361365</v>
+        <v>0.02733907029700247</v>
       </c>
       <c r="C87">
-        <v>-0.1489335824954359</v>
+        <v>-0.1193249539930656</v>
       </c>
       <c r="D87">
-        <v>0.02322234296513659</v>
+        <v>0.01877727529166677</v>
       </c>
       <c r="E87">
-        <v>-0.1070786091478416</v>
+        <v>-0.008244054598417247</v>
       </c>
       <c r="F87">
-        <v>-0.02979931345423367</v>
+        <v>-0.07042445974381445</v>
       </c>
       <c r="G87">
-        <v>0.02351263358019834</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.007497341146736553</v>
+      </c>
+      <c r="H87">
+        <v>-0.0377201329644223</v>
+      </c>
+      <c r="I87">
+        <v>-0.1151358524170549</v>
+      </c>
+      <c r="J87">
+        <v>-0.05743073586331664</v>
+      </c>
+      <c r="K87">
+        <v>0.07670662572252993</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.007303009327986956</v>
+        <v>0.03815740402614973</v>
       </c>
       <c r="C88">
-        <v>-0.0413142661739207</v>
+        <v>-0.06309749307977043</v>
       </c>
       <c r="D88">
-        <v>0.04867314905460882</v>
+        <v>0.04278107877096646</v>
       </c>
       <c r="E88">
-        <v>0.06189225056336721</v>
+        <v>0.01388440134024467</v>
       </c>
       <c r="F88">
-        <v>0.005427837342578618</v>
+        <v>0.02101318382740841</v>
       </c>
       <c r="G88">
-        <v>-0.01407584943520871</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02343619605410818</v>
+      </c>
+      <c r="H88">
+        <v>-0.007200245230839949</v>
+      </c>
+      <c r="I88">
+        <v>-0.01275989480955187</v>
+      </c>
+      <c r="J88">
+        <v>0.02138156500841592</v>
+      </c>
+      <c r="K88">
+        <v>-0.09387592370705772</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.3857514622588714</v>
+        <v>0.3895631555641711</v>
       </c>
       <c r="C89">
-        <v>0.1039354606693534</v>
+        <v>0.1185759795041825</v>
       </c>
       <c r="D89">
-        <v>0.1077207400345871</v>
+        <v>-0.03234033646389987</v>
       </c>
       <c r="E89">
-        <v>-0.08772984790814119</v>
+        <v>0.03933697706571809</v>
       </c>
       <c r="F89">
-        <v>-0.04474127965044146</v>
+        <v>-0.07545230033739478</v>
       </c>
       <c r="G89">
-        <v>0.08219605134611964</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.0474589884276843</v>
+      </c>
+      <c r="H89">
+        <v>-0.02210093114680616</v>
+      </c>
+      <c r="I89">
+        <v>-0.1541028464236311</v>
+      </c>
+      <c r="J89">
+        <v>-0.7173876697742517</v>
+      </c>
+      <c r="K89">
+        <v>0.02455927113504299</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3043050220274904</v>
+        <v>0.3142796296439986</v>
       </c>
       <c r="C90">
-        <v>0.04131478898777069</v>
+        <v>0.07748328444792139</v>
       </c>
       <c r="D90">
-        <v>-0.01721615935458925</v>
+        <v>-0.01834355779579079</v>
       </c>
       <c r="E90">
-        <v>-0.07268165346292467</v>
+        <v>-0.02670762444883941</v>
       </c>
       <c r="F90">
-        <v>0.02919125252579198</v>
+        <v>-0.03466581982242071</v>
       </c>
       <c r="G90">
-        <v>-0.03017148400879531</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.009567538397265591</v>
+      </c>
+      <c r="H90">
+        <v>-0.01892683144088714</v>
+      </c>
+      <c r="I90">
+        <v>0.01373255506321648</v>
+      </c>
+      <c r="J90">
+        <v>0.08504943183607631</v>
+      </c>
+      <c r="K90">
+        <v>0.008284000500253439</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.03547606355568409</v>
+        <v>0.05317474791306065</v>
       </c>
       <c r="C91">
-        <v>-0.08829097734249126</v>
+        <v>-0.08528896427358057</v>
       </c>
       <c r="D91">
-        <v>0.04701182527762041</v>
+        <v>0.04391230749524163</v>
       </c>
       <c r="E91">
-        <v>0.06744069592037405</v>
+        <v>-0.01715596854131208</v>
       </c>
       <c r="F91">
-        <v>0.07760904349911307</v>
+        <v>0.0612615629870475</v>
       </c>
       <c r="G91">
-        <v>0.04877784700033931</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.07820800109977215</v>
+      </c>
+      <c r="H91">
+        <v>0.03212930207342621</v>
+      </c>
+      <c r="I91">
+        <v>-0.009672148735681181</v>
+      </c>
+      <c r="J91">
+        <v>0.0002318788628621725</v>
+      </c>
+      <c r="K91">
+        <v>-0.05240586373057605</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3842450577942619</v>
+        <v>0.3545551355987206</v>
       </c>
       <c r="C92">
-        <v>0.0897873111156212</v>
+        <v>0.1205374107397279</v>
       </c>
       <c r="D92">
-        <v>-0.01228632257647004</v>
+        <v>-0.05348796956548426</v>
       </c>
       <c r="E92">
-        <v>0.02722306402436889</v>
+        <v>0.03089445401146258</v>
       </c>
       <c r="F92">
-        <v>-0.09391339390403557</v>
+        <v>-0.05575368795330747</v>
       </c>
       <c r="G92">
-        <v>0.02734088978707408</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.01296608730055034</v>
+      </c>
+      <c r="H92">
+        <v>-0.06453188101529325</v>
+      </c>
+      <c r="I92">
+        <v>0.03745321283199242</v>
+      </c>
+      <c r="J92">
+        <v>0.1485532724520836</v>
+      </c>
+      <c r="K92">
+        <v>-0.003821793060572058</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.299687886493364</v>
+        <v>0.3100983969418619</v>
       </c>
       <c r="C93">
-        <v>0.08725503109458123</v>
+        <v>0.1138804467874399</v>
       </c>
       <c r="D93">
-        <v>0.007662028138037306</v>
+        <v>-0.009331216832301764</v>
       </c>
       <c r="E93">
-        <v>-0.06040348628499675</v>
+        <v>-0.01011785519036238</v>
       </c>
       <c r="F93">
-        <v>-0.01347560287151271</v>
+        <v>-0.03654332436446662</v>
       </c>
       <c r="G93">
-        <v>0.01560534931808878</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.0413150346053363</v>
+      </c>
+      <c r="H93">
+        <v>-0.02918986577184229</v>
+      </c>
+      <c r="I93">
+        <v>0.04618439726974143</v>
+      </c>
+      <c r="J93">
+        <v>0.09543943100943428</v>
+      </c>
+      <c r="K93">
+        <v>0.006566416597800387</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.05245390107158244</v>
+        <v>0.07788179145038804</v>
       </c>
       <c r="C94">
-        <v>-0.1995386686618808</v>
+        <v>-0.1616852287477388</v>
       </c>
       <c r="D94">
-        <v>0.1577242983754163</v>
+        <v>0.1052277707589082</v>
       </c>
       <c r="E94">
-        <v>0.245221743228031</v>
+        <v>0.0355662064490812</v>
       </c>
       <c r="F94">
-        <v>0.2245263862718206</v>
+        <v>0.147284711115974</v>
       </c>
       <c r="G94">
-        <v>0.5343534117286231</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.5311493903562703</v>
+      </c>
+      <c r="H94">
+        <v>0.2375632973173387</v>
+      </c>
+      <c r="I94">
+        <v>0.06695039957487957</v>
+      </c>
+      <c r="J94">
+        <v>-0.2073044797072506</v>
+      </c>
+      <c r="K94">
+        <v>-0.1825188462281847</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.03831314602901849</v>
+        <v>0.03991818132423163</v>
       </c>
       <c r="C95">
-        <v>-0.1030182688687444</v>
+        <v>-0.1308059889788927</v>
       </c>
       <c r="D95">
-        <v>0.03254290772400298</v>
+        <v>0.05884403023024932</v>
       </c>
       <c r="E95">
-        <v>0.04550369518023917</v>
+        <v>0.03883338237609734</v>
       </c>
       <c r="F95">
-        <v>0.07824703147509605</v>
+        <v>0.06931625581446013</v>
       </c>
       <c r="G95">
-        <v>-0.144012246289201</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.0529989029172015</v>
+      </c>
+      <c r="H95">
+        <v>-0.07584139756582055</v>
+      </c>
+      <c r="I95">
+        <v>-0.127672264415785</v>
+      </c>
+      <c r="J95">
+        <v>-0.1323328547512984</v>
+      </c>
+      <c r="K95">
+        <v>-0.2064852923304599</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-7.591165181346552e-06</v>
+        <v>0.0128124980563434</v>
       </c>
       <c r="C97">
-        <v>-0.0007733318021385249</v>
+        <v>-0.01746468418950381</v>
       </c>
       <c r="D97">
-        <v>4.453577872537416e-05</v>
+        <v>-0.01094539053465444</v>
       </c>
       <c r="E97">
-        <v>-0.0005206472026191096</v>
+        <v>0.03092925713953279</v>
       </c>
       <c r="F97">
-        <v>-0.001249003793410735</v>
+        <v>-0.01943388118086694</v>
       </c>
       <c r="G97">
-        <v>0.001434849393491969</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.02819554119053669</v>
+      </c>
+      <c r="H97">
+        <v>-0.04553305925497095</v>
+      </c>
+      <c r="I97">
+        <v>0.131227520178662</v>
+      </c>
+      <c r="J97">
+        <v>-0.06381794206388475</v>
+      </c>
+      <c r="K97">
+        <v>-0.003975885723948492</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.08913676923497461</v>
+        <v>0.1312569152421174</v>
       </c>
       <c r="C98">
-        <v>-0.1509706045343051</v>
+        <v>-0.1571310679696562</v>
       </c>
       <c r="D98">
-        <v>0.1227670914607422</v>
+        <v>0.09129820611472821</v>
       </c>
       <c r="E98">
-        <v>0.07114190969608908</v>
+        <v>0.03223066398829628</v>
       </c>
       <c r="F98">
-        <v>-0.003556846048516468</v>
+        <v>0.218980960015003</v>
       </c>
       <c r="G98">
-        <v>-0.2766795500476246</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.3326963673000821</v>
+      </c>
+      <c r="H98">
+        <v>0.3250674547145271</v>
+      </c>
+      <c r="I98">
+        <v>0.1139631908667967</v>
+      </c>
+      <c r="J98">
+        <v>0.07160556663803729</v>
+      </c>
+      <c r="K98">
+        <v>0.09249835056562214</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.01527416630300278</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.04691452733137166</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.007103858591272961</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.03233984643021948</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.04450923948360076</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.07482682080684226</v>
+      </c>
+      <c r="H99">
+        <v>-0.1172802143727147</v>
+      </c>
+      <c r="I99">
+        <v>0.863226647778913</v>
+      </c>
+      <c r="J99">
+        <v>-0.2494637621877104</v>
+      </c>
+      <c r="K99">
+        <v>0.02845050805701914</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.008929520641959468</v>
+        <v>0.01427986119781661</v>
       </c>
       <c r="C101">
-        <v>-0.07503191745464922</v>
+        <v>-0.08039120203422881</v>
       </c>
       <c r="D101">
-        <v>0.03989990759193645</v>
+        <v>0.05270687068876471</v>
       </c>
       <c r="E101">
-        <v>-0.03202060887339402</v>
+        <v>-0.05826275719141911</v>
       </c>
       <c r="F101">
-        <v>0.002348960144040358</v>
+        <v>0.0106053556740293</v>
       </c>
       <c r="G101">
-        <v>-0.0916492336407716</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.107005898301527</v>
+      </c>
+      <c r="H101">
+        <v>-0.2958901376830294</v>
+      </c>
+      <c r="I101">
+        <v>0.016070825546702</v>
+      </c>
+      <c r="J101">
+        <v>-0.04817539956558853</v>
+      </c>
+      <c r="K101">
+        <v>-0.1460113186226802</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.01017207311145559</v>
+        <v>0.003749529835026721</v>
       </c>
       <c r="C102">
-        <v>-0.02843364315785944</v>
+        <v>-0.01090973568211954</v>
       </c>
       <c r="D102">
-        <v>0.007343571881993931</v>
+        <v>0.0007591636625575542</v>
       </c>
       <c r="E102">
-        <v>0.02109426211223589</v>
+        <v>-0.00408267783175418</v>
       </c>
       <c r="F102">
-        <v>0.02694379255950796</v>
+        <v>0.007628975031110318</v>
       </c>
       <c r="G102">
-        <v>0.000818319501616559</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.005852290331711221</v>
+      </c>
+      <c r="H102">
+        <v>-0.0001070570691836913</v>
+      </c>
+      <c r="I102">
+        <v>-0.0006650996154445221</v>
+      </c>
+      <c r="J102">
+        <v>-0.0190379536259014</v>
+      </c>
+      <c r="K102">
+        <v>0.006168492144913521</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
